--- a/dataset/FAO_excel.xlsx
+++ b/dataset/FAO_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkfouri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milo\OneDrive - Food and Agriculture Organization\Desktop\fao FILES\website charts\chart files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18F841A-0B49-437D-B59F-929E00EEF138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6947B7-3513-48C8-8B18-66F8D48FC61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{60BE2418-44F4-4C83-B19A-593B1E77FA59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{60BE2418-44F4-4C83-B19A-593B1E77FA59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -520,18 +520,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B8ABD8-DE2A-4A96-B7D3-924B0163C455}">
   <dimension ref="B2:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="14" t="s">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="14"/>
@@ -567,7 +567,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <v>1970</v>
       </c>
@@ -652,7 +652,7 @@
         <v>27.338492294898625</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>1971</v>
       </c>
@@ -697,7 +697,7 @@
         <v>28.598220846780745</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>1972</v>
       </c>
@@ -742,7 +742,7 @@
         <v>31.302118653709858</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>1973</v>
       </c>
@@ -787,7 +787,7 @@
         <v>63.123609704265299</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>1974</v>
       </c>
@@ -832,7 +832,7 @@
         <v>64.955659851832309</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>1975</v>
       </c>
@@ -877,7 +877,7 @@
         <v>51.259376573694254</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>1976</v>
       </c>
@@ -922,7 +922,7 @@
         <v>55.212834031888349</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>1977</v>
       </c>
@@ -967,7 +967,7 @@
         <v>66.393993784470624</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>1978</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>63.610566948955693</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>1979</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>70.11271481188507</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>1980</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>69.500394497217641</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>1981</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>67.874963233144825</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>1982</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>58.756641296511617</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <v>1983</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>66.706534154984311</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
         <v>1984</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>68.577334280908687</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="6">
         <v>1985</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54.8375972313953</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="6">
         <v>1986</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>49.133954789479588</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="6">
         <v>1987</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>49.366224284190459</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="6">
         <v>1988</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>67.806597580686258</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="6">
         <v>1989</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>63.578249821385782</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="6">
         <v>1990</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>57.361777031288703</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="6">
         <v>1991</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>55.347283430387591</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="6">
         <v>1992</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>55.340513184475491</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
         <v>1993</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>59.425320431306879</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="6">
         <v>1994</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>60.55630225782599</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="6">
         <v>1995</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>61.742841113235635</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
         <v>1996</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>70.467008793040009</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <v>1997</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>68.070887463285018</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="6">
         <v>1998</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>58.880852562822241</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" s="6">
         <v>1999</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>47.3237884409779</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
         <v>2000</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>48.333310832170405</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" s="6">
         <v>2001</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>46.568451249565904</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" s="6">
         <v>2002</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>51.273438105060684</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" s="6">
         <v>2003</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>62.844744389528017</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" s="6">
         <v>2004</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>71.299364854778617</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" s="6">
         <v>2005</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>64.086270697932534</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" s="6">
         <v>2006</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>64.035845143438252</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" s="6">
         <v>2007</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>92.143965946274932</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" s="6">
         <v>2008</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>126.49515762679475</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" s="6">
         <v>2009</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>99.461578547444446</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" s="6">
         <v>2010</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>106.36212029463748</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" s="6">
         <v>2011</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>130.50717961105315</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" s="6">
         <v>2012</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>138.69876621611323</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" s="6">
         <v>2013</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>127.68643216366463</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="6">
         <v>2014</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>113.45914009801413</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" s="6">
         <v>2015</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>91.91646690209727</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" s="6">
         <v>2016</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>94.62439299988857</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="6">
         <v>2017</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>93.966795284338687</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="6">
         <v>2018</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>92.657776383601757</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="6">
         <v>2019</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>87.922272888189923</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="6">
         <v>2020</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>96.684027344883347</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="6">
         <v>2021</v>
       </c>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="P56" s="12"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" s="6">
         <v>2022</v>
       </c>
@@ -2955,9 +2955,11 @@
         <v>150.9109139413705</v>
       </c>
       <c r="D57" s="9">
-        <v>162.27536394191063</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>162.71026520315991</v>
+      </c>
+      <c r="E57" s="9">
+        <v>181.44317243909882</v>
+      </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -2970,7 +2972,7 @@
       <c r="O57" s="7"/>
       <c r="P57" s="12"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="14" t="s">
@@ -2990,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3006,7 +3008,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B61" s="10"/>
       <c r="C61" s="5" t="s">
         <v>1</v>
@@ -3046,7 +3048,7 @@
       </c>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="6">
         <v>1970</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>27.097814076060033</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="6">
         <v>1971</v>
       </c>
@@ -3136,7 +3138,7 @@
         <v>26.577043232931459</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="6">
         <v>1972</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>32.738752530004007</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="6">
         <v>1973</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>72.526910514008208</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="6">
         <v>1974</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>47.5238382652635</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B67" s="6">
         <v>1975</v>
       </c>
@@ -3316,7 +3318,7 @@
         <v>40.724704970794832</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B68" s="6">
         <v>1976</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>50.967920186975164</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B69" s="6">
         <v>1977</v>
       </c>
@@ -3406,7 +3408,7 @@
         <v>58.758903563383512</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B70" s="6">
         <v>1978</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>54.725073432107926</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B71" s="6">
         <v>1979</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>62.463878034698773</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B72" s="6">
         <v>1980</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>66.830732828094696</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="6">
         <v>1981</v>
       </c>
@@ -3586,7 +3588,7 @@
         <v>64.66983207821383</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B74" s="6">
         <v>1982</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>56.158204695988168</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B75" s="6">
         <v>1983</v>
       </c>
@@ -3676,7 +3678,7 @@
         <v>60.119133554304803</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B76" s="6">
         <v>1984</v>
       </c>
@@ -3721,7 +3723,7 @@
         <v>49.132597965005431</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B77" s="6">
         <v>1985</v>
       </c>
@@ -3766,7 +3768,7 @@
         <v>38.649511069075309</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="6">
         <v>1986</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>45.234427806833345</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B79" s="6">
         <v>1987</v>
       </c>
@@ -3856,7 +3858,7 @@
         <v>48.899936500753277</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="6">
         <v>1988</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>64.498650886746063</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B81" s="6">
         <v>1989</v>
       </c>
@@ -3946,7 +3948,7 @@
         <v>60.415271482842741</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B82" s="6">
         <v>1990</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>48.843448691005257</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B83" s="6">
         <v>1991</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>48.391898820127381</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B84" s="6">
         <v>1992</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>50.79971745779406</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B85" s="6">
         <v>1993</v>
       </c>
@@ -4126,7 +4128,7 @@
         <v>51.522446222968064</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B86" s="6">
         <v>1994</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>48.054954825879598</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B87" s="6">
         <v>1995</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>48.72906481738957</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B88" s="6">
         <v>1996</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>65.532762821968745</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B89" s="6">
         <v>1997</v>
       </c>
@@ -4306,7 +4308,7 @@
         <v>65.588105515650682</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B90" s="6">
         <v>1998</v>
       </c>
@@ -4351,7 +4353,7 @@
         <v>41.320435462924387</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B91" s="6">
         <v>1999</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>36.988598521966956</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B92" s="6">
         <v>2000</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>45.676466532637967</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B93" s="6">
         <v>2001</v>
       </c>
@@ -4486,7 +4488,7 @@
         <v>44.478967897979381</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B94" s="6">
         <v>2002</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>42.94701033698643</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B95" s="6">
         <v>2003</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>51.827400036916004</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B96" s="6">
         <v>2004</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>57.966475900199804</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B97" s="6">
         <v>2005</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>51.245718986888541</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B98" s="6">
         <v>2006</v>
       </c>
@@ -4711,7 +4713,7 @@
         <v>50.739854417576375</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B99" s="6">
         <v>2007</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>76.367055345573633</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B100" s="6">
         <v>2008</v>
       </c>
@@ -4801,7 +4803,7 @@
         <v>103.15923017298614</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B101" s="6">
         <v>2009</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>94.606037268177786</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B102" s="6">
         <v>2010</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>94.080974933147957</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B103" s="6">
         <v>2011</v>
       </c>
@@ -4936,7 +4938,7 @@
         <v>97.593597767574011</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B104" s="6">
         <v>2012</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>121.97414568170802</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B105" s="6">
         <v>2013</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>129.39727449509584</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B106" s="6">
         <v>2014</v>
       </c>
@@ -5071,7 +5073,7 @@
         <v>123.11076240467391</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B107" s="6">
         <v>2015</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>91.476226675112784</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B108" s="6">
         <v>2016</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>85.413010920213324</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B109" s="6">
         <v>2017</v>
       </c>
@@ -5206,7 +5208,7 @@
         <v>80.672234241497065</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B110" s="6">
         <v>2018</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>93.865052805447988</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B111" s="6">
         <v>2019</v>
       </c>
@@ -5296,7 +5298,7 @@
         <v>79.497528550206013</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B112" s="6">
         <v>2020</v>
       </c>
@@ -5341,7 +5343,7 @@
         <v>91.809196570933636</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="6">
         <v>2021</v>
       </c>
@@ -5386,7 +5388,7 @@
       </c>
       <c r="P113" s="12"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="6">
         <v>2022</v>
       </c>
@@ -5394,9 +5396,11 @@
         <v>125.38072941441338</v>
       </c>
       <c r="D114" s="9">
-        <v>135.71373165121921</v>
-      </c>
-      <c r="E114" s="9"/>
+        <v>136.0097246089249</v>
+      </c>
+      <c r="E114" s="9">
+        <v>153.23407225431623</v>
+      </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -5409,11 +5413,11 @@
       <c r="O114" s="7"/>
       <c r="P114" s="12"/>
     </row>
-    <row r="115" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B115" s="11"/>
       <c r="D115" s="12"/>
     </row>
-    <row r="116" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="10"/>
       <c r="D116" s="14" t="s">
@@ -5433,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B117" s="3"/>
       <c r="C117" s="10"/>
       <c r="D117" s="13"/>
@@ -5449,7 +5453,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="4"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="5" t="s">
         <v>1</v>
@@ -5489,7 +5493,7 @@
       </c>
       <c r="O118" s="4"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="6">
         <v>1970</v>
       </c>
@@ -5534,7 +5538,7 @@
         <v>35.326941715945864</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="6">
         <v>1971</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>36.438404908971499</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="6">
         <v>1972</v>
       </c>
@@ -5624,7 +5628,7 @@
         <v>29.909030612189941</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="6">
         <v>1973</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>52.108068006007976</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="6">
         <v>1974</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>96.609707748138689</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="6">
         <v>1975</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>63.469135406559282</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="6">
         <v>1976</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>55.071956062227542</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="6">
         <v>1977</v>
       </c>
@@ -5849,7 +5853,7 @@
         <v>70.75076003270668</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="6">
         <v>1978</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>77.288161419873816</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="6">
         <v>1979</v>
       </c>
@@ -5939,7 +5943,7 @@
         <v>86.552713532142903</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B129" s="6">
         <v>1980</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>75.049696013919132</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B130" s="6">
         <v>1981</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>70.583982901179354</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B131" s="6">
         <v>1982</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>57.321350652253749</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B132" s="6">
         <v>1983</v>
       </c>
@@ -6119,7 +6123,7 @@
         <v>66.57250379730516</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B133" s="6">
         <v>1984</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>94.631145444324417</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B134" s="6">
         <v>1985</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>67.0713693609991</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B135" s="6">
         <v>1986</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>37.012737973306272</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B136" s="6">
         <v>1987</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>43.783766762895311</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B137" s="6">
         <v>1988</v>
       </c>
@@ -6344,7 +6348,7 @@
         <v>57.196527034081079</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B138" s="6">
         <v>1989</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>50.376156185433182</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B139" s="6">
         <v>1990</v>
       </c>
@@ -6434,7 +6438,7 @@
         <v>45.469774807559723</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B140" s="6">
         <v>1991</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>49.007954160868138</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B141" s="6">
         <v>1992</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>52.991996389394096</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B142" s="6">
         <v>1993</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>53.966480634247155</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B143" s="6">
         <v>1994</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>71.86775375736012</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B144" s="6">
         <v>1995</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>79.958388107894464</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B145" s="6">
         <v>1996</v>
       </c>
@@ -6704,7 +6708,7 @@
         <v>69.935192942812847</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B146" s="6">
         <v>1997</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>70.684734616225128</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B147" s="6">
         <v>1998</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>83.885433824296058</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B148" s="6">
         <v>1999</v>
       </c>
@@ -6839,7 +6843,7 @@
         <v>58.226982259430038</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B149" s="6">
         <v>2000</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>42.893057709054148</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B150" s="6">
         <v>2001</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>42.481465934354574</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B151" s="6">
         <v>2002</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>55.144333609249486</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B152" s="6">
         <v>2003</v>
       </c>
@@ -7019,7 +7023,7 @@
         <v>62.630981044686195</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B153" s="6">
         <v>2004</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>69.611630256601828</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B154" s="6">
         <v>2005</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>64.398729453081458</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B155" s="6">
         <v>2006</v>
       </c>
@@ -7154,7 +7158,7 @@
         <v>70.545117172211107</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B156" s="6">
         <v>2007</v>
       </c>
@@ -7199,7 +7203,7 @@
         <v>107.31480603874809</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B157" s="6">
         <v>2008</v>
       </c>
@@ -7244,7 +7248,7 @@
         <v>141.07285693456427</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B158" s="6">
         <v>2009</v>
       </c>
@@ -7289,7 +7293,7 @@
         <v>94.427359462779535</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B159" s="6">
         <v>2010</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>121.95018353123997</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B160" s="6">
         <v>2011</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>156.47988910149471</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B161" s="6">
         <v>2012</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>138.30661545629084</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B162" s="6">
         <v>2013</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>119.49987300357218</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B163" s="6">
         <v>2014</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>110.61626149692739</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B164" s="6">
         <v>2015</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>89.941094021134347</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B165" s="6">
         <v>2016</v>
       </c>
@@ -7604,7 +7608,7 @@
         <v>99.44264448193826</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B166" s="6">
         <v>2017</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>101.90947584276995</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B167" s="6">
         <v>2018</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>87.761077022643121</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B168" s="6">
         <v>2019</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>83.239276164542943</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B169" s="6">
         <v>2020</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>99.443535679772523</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B170" s="6">
         <v>2021</v>
       </c>
@@ -7829,7 +7833,7 @@
       </c>
       <c r="P170" s="12"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B171" s="6">
         <v>2022</v>
       </c>
@@ -7837,9 +7841,11 @@
         <v>185.93144191456406</v>
       </c>
       <c r="D171" s="9">
-        <v>201.70019424795748</v>
-      </c>
-      <c r="E171" s="9"/>
+        <v>201.71767545192617</v>
+      </c>
+      <c r="E171" s="9">
+        <v>248.59770682539457</v>
+      </c>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
